--- a/biology/Zoologie/Mark_Benecke/Mark_Benecke.xlsx
+++ b/biology/Zoologie/Mark_Benecke/Mark_Benecke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mark Benecke est un biologiste et un spécialiste de l'entomologie médico-légale allemand né le 26 août 1970 à Rosenheim en Bavière[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mark Benecke est un biologiste et un spécialiste de l'entomologie médico-légale allemand né le 26 août 1970 à Rosenheim en Bavière.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études de biologie, de zoologie et de psychologie à l'université de Cologne, il a suivi divers apprentissages de police à l'orientation technique dans le domaine de la médecine légale aux États-Unis parmi eux à l'Académie du FBI.
 il a été consulté comme expert pour exploiter des traces biologiques dans les cas de crimes violents. De cette façon, après une recherche sur les asticots, il a constaté en 1997-1998 la date de la mort de la femme tuée par le pasteur Klaus Geyer. Comme Geyer n'avait pas d'alibi à l'heure de l'enquête, il a été condamné pour le meurtre de sa femme.
@@ -522,17 +536,6 @@
 Mark Benecke est éditeur invité pour le Forensic Science International (Forensic Entomology Special Issue) et membre au conseil scientifique de la société à la recherche scientifique des para sciences. Il publie des articles dans le magazine Skeptiker sur des sujets bizarres comme la combustion spontanée, de miracles de sang (ensemble avec la deuxième chaîne de télévision généraliste publique fédérale allemande), des vampires, des monts magnétiques etc.
 Mark Benecke a travaillé au conseil scientifique des Annals of Improbable Research qui décernent annuellement le prix Ig Nobel à l'université de Harvard. 
 Il s'est engagé pour la protection des animaux de mer invertébrés et contre la détention des animaux de cirque avec l'association People for the Ethical Treatment of Animals (PETA).
-Médias
-Depuis 1999, la Radio Eins de Berlin-Brandenburg diffuse le samedi des contributions de Mark Benecke sur des sujets scientifiques.
-Depuis 2010, Benecke est chroniqueur de la rubrique « Opinions » du journal allemand Frankfurter Rundschau.
-Depuis quelques années, on peut le voir assez souvent comme médecin légiste dans la série télévisée Niedrig und Kuhnt – Kommissare ermitteln diffusée par la chaîne de télévision généraliste privée allemande Sat1. Il a également fait une apparition comme biologiste criminel et criminaliste dans la série télévisée Galileo-Mystery sur Jack l'Éventreur (2006), Papesse Jeanne (2006), Pirate (2006), Die Kreuzigung Jesu (2007), Flüche (2007) et Zombies und Wiedergänger (2007) diffusées par la chaîne de télévision généraliste privée allemande ProSieben.
-En 2009, comme président du Transylvanian Society of Dracula il a été lauréat du prix de littérature internationale Corine pour le livre audio Un Lieu incertain de Fred Vargas lu par Barbara Nüsse dans lequel le cas d'un vampire Plogojowitz est le sujet principal.
-Musique
-En 1989, il a fondé en collaboration avec Klaus Fehling à Cologne le groupe de schlager punk Die Blonden Burschen, dont il a fait partie jusqu'à 2000 sous le pseudonyme Belcanto Bene.
-En 2009, il a participé à l'album Baustoff du groupe électronique Patenbrigade Wolff, très célèbre dans les charts de DAC (charts allemands alternatifs).
-Lors du 19e rencontre Wave-Gotique en mai 2010 on a publié une reprise de Where the Wild Roses Grow de Benecke avec Sara Noxx étant remixé par des groupes électroniques fameux comme Feindflug, Kontrast, The Eternal Afflict et d'autres.
-Politique
-Lors de la campagne électorale au Landtag de 2010 en Rhénanie-du-Nord-Westphalie (Allemagne) il s'est présenté comme candidat en tête à la fonction de ministre-président du parti DIE PARTEI fondé par le magazine satirique TITANIC.
 </t>
         </is>
       </c>
@@ -558,10 +561,128 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Médias</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1999, la Radio Eins de Berlin-Brandenburg diffuse le samedi des contributions de Mark Benecke sur des sujets scientifiques.
+Depuis 2010, Benecke est chroniqueur de la rubrique « Opinions » du journal allemand Frankfurter Rundschau.
+Depuis quelques années, on peut le voir assez souvent comme médecin légiste dans la série télévisée Niedrig und Kuhnt – Kommissare ermitteln diffusée par la chaîne de télévision généraliste privée allemande Sat1. Il a également fait une apparition comme biologiste criminel et criminaliste dans la série télévisée Galileo-Mystery sur Jack l'Éventreur (2006), Papesse Jeanne (2006), Pirate (2006), Die Kreuzigung Jesu (2007), Flüche (2007) et Zombies und Wiedergänger (2007) diffusées par la chaîne de télévision généraliste privée allemande ProSieben.
+En 2009, comme président du Transylvanian Society of Dracula il a été lauréat du prix de littérature internationale Corine pour le livre audio Un Lieu incertain de Fred Vargas lu par Barbara Nüsse dans lequel le cas d'un vampire Plogojowitz est le sujet principal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mark_Benecke</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mark_Benecke</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1989, il a fondé en collaboration avec Klaus Fehling à Cologne le groupe de schlager punk Die Blonden Burschen, dont il a fait partie jusqu'à 2000 sous le pseudonyme Belcanto Bene.
+En 2009, il a participé à l'album Baustoff du groupe électronique Patenbrigade Wolff, très célèbre dans les charts de DAC (charts allemands alternatifs).
+Lors du 19e rencontre Wave-Gotique en mai 2010 on a publié une reprise de Where the Wild Roses Grow de Benecke avec Sara Noxx étant remixé par des groupes électroniques fameux comme Feindflug, Kontrast, The Eternal Afflict et d'autres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mark_Benecke</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mark_Benecke</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Politique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de la campagne électorale au Landtag de 2010 en Rhénanie-du-Nord-Westphalie (Allemagne) il s'est présenté comme candidat en tête à la fonction de ministre-président du parti DIE PARTEI fondé par le magazine satirique TITANIC.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mark_Benecke</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mark_Benecke</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Nomination à la Linnean Society of London
 Médaille d'argent de l'Union de fonctionnaires de policier allemands (2003).</t>
